--- a/learn/Python/f1/data1.xlsx
+++ b/learn/Python/f1/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AEOD\Desktop\sh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Computer-Graphics\learn\Python\f1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A36F410-CC22-43D1-8128-96DBFCAD1CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435349C-135D-4D57-B4EF-59AA787E65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="3030" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,24 @@
     <sheet name="心率" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="197">
   <si>
     <t>时间</t>
   </si>
@@ -191,9 +204,6 @@
       </rPr>
       <t>4</t>
     </r>
-  </si>
-  <si>
-    <t>JS2009232032</t>
   </si>
   <si>
     <r>
@@ -668,97 +678,106 @@
     <t>PB2009272016</t>
   </si>
   <si>
+    <t>JS2009272033</t>
+  </si>
+  <si>
+    <t>JS2009272034</t>
+  </si>
+  <si>
+    <t>JS2009272035</t>
+  </si>
+  <si>
+    <t>JS2009272036</t>
+  </si>
+  <si>
+    <t>JS2009272037</t>
+  </si>
+  <si>
+    <t>JS2009272038</t>
+  </si>
+  <si>
+    <t>JS2009272039</t>
+  </si>
+  <si>
+    <t>JS2009272040</t>
+  </si>
+  <si>
+    <t>JS2009272041</t>
+  </si>
+  <si>
+    <t>JS2009272042</t>
+  </si>
+  <si>
+    <t>JS2009272043</t>
+  </si>
+  <si>
+    <t>JS2009272044</t>
+  </si>
+  <si>
+    <t>JS2009272045</t>
+  </si>
+  <si>
+    <t>JS2009272046</t>
+  </si>
+  <si>
+    <t>JS2009272047</t>
+  </si>
+  <si>
+    <t>JS2009272048</t>
+  </si>
+  <si>
+    <t>JS2009272049</t>
+  </si>
+  <si>
+    <t>JS2009272050</t>
+  </si>
+  <si>
+    <t>JS2009272051</t>
+  </si>
+  <si>
+    <t>JS2009272052</t>
+  </si>
+  <si>
+    <t>JS2009272053</t>
+  </si>
+  <si>
+    <t>JS2009272054</t>
+  </si>
+  <si>
+    <t>JS2009272055</t>
+  </si>
+  <si>
+    <t>JS2009272056</t>
+  </si>
+  <si>
+    <t>JS2009272057</t>
+  </si>
+  <si>
+    <t>JS2009272058</t>
+  </si>
+  <si>
+    <t>JS2009272059</t>
+  </si>
+  <si>
+    <t>JS2009272100</t>
+  </si>
+  <si>
+    <t>JS2009272101</t>
+  </si>
+  <si>
+    <t>JS2009272102</t>
+  </si>
+  <si>
+    <t>BX2009211842</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JS2009272032</t>
-  </si>
-  <si>
-    <t>JS2009272033</t>
-  </si>
-  <si>
-    <t>JS2009272034</t>
-  </si>
-  <si>
-    <t>JS2009272035</t>
-  </si>
-  <si>
-    <t>JS2009272036</t>
-  </si>
-  <si>
-    <t>JS2009272037</t>
-  </si>
-  <si>
-    <t>JS2009272038</t>
-  </si>
-  <si>
-    <t>JS2009272039</t>
-  </si>
-  <si>
-    <t>JS2009272040</t>
-  </si>
-  <si>
-    <t>JS2009272041</t>
-  </si>
-  <si>
-    <t>JS2009272042</t>
-  </si>
-  <si>
-    <t>JS2009272043</t>
-  </si>
-  <si>
-    <t>JS2009272044</t>
-  </si>
-  <si>
-    <t>JS2009272045</t>
-  </si>
-  <si>
-    <t>JS2009272046</t>
-  </si>
-  <si>
-    <t>JS2009272047</t>
-  </si>
-  <si>
-    <t>JS2009272048</t>
-  </si>
-  <si>
-    <t>JS2009272049</t>
-  </si>
-  <si>
-    <t>JS2009272050</t>
-  </si>
-  <si>
-    <t>JS2009272051</t>
-  </si>
-  <si>
-    <t>JS2009272052</t>
-  </si>
-  <si>
-    <t>JS2009272053</t>
-  </si>
-  <si>
-    <t>JS2009272054</t>
-  </si>
-  <si>
-    <t>JS2009272055</t>
-  </si>
-  <si>
-    <t>JS2009272056</t>
-  </si>
-  <si>
-    <t>JS2009272057</t>
-  </si>
-  <si>
-    <t>JS2009272058</t>
-  </si>
-  <si>
-    <t>JS2009272059</t>
-  </si>
-  <si>
-    <t>JS2009272100</t>
-  </si>
-  <si>
-    <t>JS2009272101</t>
-  </si>
-  <si>
-    <t>JS2009272102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,7 +794,7 @@
     <numFmt numFmtId="182" formatCode="yyyy/mm/d\ h:mm:ss;@"/>
     <numFmt numFmtId="183" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,6 +804,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -813,35 +840,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -853,38 +859,26 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,7 +1158,7 @@
   <dimension ref="A1:J496"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I415" sqref="I415"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1199,7 +1193,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+      <c r="A2" s="7">
         <v>44095.435995370397</v>
       </c>
       <c r="B2">
@@ -1222,7 +1216,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+      <c r="A3" s="7">
         <v>44095.442939814799</v>
       </c>
       <c r="B3">
@@ -1245,7 +1239,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+      <c r="A4" s="7">
         <v>44095.449884259302</v>
       </c>
       <c r="B4">
@@ -1268,7 +1262,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
+      <c r="A5" s="7">
         <v>44095.456828703696</v>
       </c>
       <c r="B5">
@@ -1291,7 +1285,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="7">
         <v>44095.463773148098</v>
       </c>
       <c r="B6">
@@ -1314,7 +1308,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+      <c r="A7" s="7">
         <v>44095.470717592601</v>
       </c>
       <c r="B7">
@@ -1337,7 +1331,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+      <c r="A8" s="7">
         <v>44095.477662037003</v>
       </c>
       <c r="B8">
@@ -1360,7 +1354,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="7">
         <v>44095.484606481499</v>
       </c>
       <c r="B9">
@@ -1383,7 +1377,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="7">
         <v>44095.491550925901</v>
       </c>
       <c r="B10">
@@ -1406,7 +1400,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
+      <c r="A11" s="7">
         <v>44095.498495370397</v>
       </c>
       <c r="B11">
@@ -1429,7 +1423,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="7">
         <v>44095.505439814799</v>
       </c>
       <c r="B12">
@@ -1452,7 +1446,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="16">
+      <c r="A13" s="7">
         <v>44095.512384259302</v>
       </c>
       <c r="B13">
@@ -1475,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
+      <c r="A14" s="7">
         <v>44095.519328703696</v>
       </c>
       <c r="B14">
@@ -1498,7 +1492,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
+      <c r="A15" s="7">
         <v>44095.526273148098</v>
       </c>
       <c r="B15">
@@ -1521,7 +1515,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
+      <c r="A16" s="7">
         <v>44095.533217592601</v>
       </c>
       <c r="B16">
@@ -1544,7 +1538,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
+      <c r="A17" s="7">
         <v>44095.540162037003</v>
       </c>
       <c r="B17">
@@ -1567,7 +1561,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="7">
         <v>44095.547106481499</v>
       </c>
       <c r="B18">
@@ -1590,7 +1584,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
+      <c r="A19" s="7">
         <v>44095.554050925901</v>
       </c>
       <c r="B19">
@@ -1613,7 +1607,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="7">
         <v>44095.560995370397</v>
       </c>
       <c r="B20">
@@ -1636,7 +1630,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
+      <c r="A21" s="7">
         <v>44095.567939814799</v>
       </c>
       <c r="B21">
@@ -1659,7 +1653,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="A22" s="7">
         <v>44095.574884259302</v>
       </c>
       <c r="B22">
@@ -1682,7 +1676,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="16">
+      <c r="A23" s="7">
         <v>44095.581828703696</v>
       </c>
       <c r="B23">
@@ -1705,7 +1699,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="7">
         <v>44095.588773148098</v>
       </c>
       <c r="B24">
@@ -1728,7 +1722,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="16">
+      <c r="A25" s="7">
         <v>44095.595717592601</v>
       </c>
       <c r="B25">
@@ -1751,7 +1745,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+      <c r="A26" s="7">
         <v>44095.602662037003</v>
       </c>
       <c r="B26">
@@ -1774,7 +1768,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+      <c r="A27" s="7">
         <v>44095.609606481499</v>
       </c>
       <c r="B27">
@@ -1797,7 +1791,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+      <c r="A28" s="7">
         <v>44095.616550925901</v>
       </c>
       <c r="B28">
@@ -1820,7 +1814,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
+      <c r="A29" s="7">
         <v>44095.623495370397</v>
       </c>
       <c r="B29">
@@ -1843,7 +1837,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="7">
         <v>44095.630439814799</v>
       </c>
       <c r="B30">
@@ -1866,7 +1860,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="16">
+      <c r="A31" s="7">
         <v>44095.637384259302</v>
       </c>
       <c r="B31">
@@ -1889,7 +1883,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="16">
+      <c r="A32" s="7">
         <v>44095.644328703696</v>
       </c>
       <c r="B32">
@@ -1912,7 +1906,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="16">
+      <c r="A33" s="7">
         <v>44095.651273148098</v>
       </c>
       <c r="B33">
@@ -1935,7 +1929,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="7">
         <v>44095.658217592601</v>
       </c>
       <c r="B34">
@@ -1958,7 +1952,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="16">
+      <c r="A35" s="7">
         <v>44095.665162037003</v>
       </c>
       <c r="B35">
@@ -1981,7 +1975,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
+      <c r="A36" s="7">
         <v>44095.672106481499</v>
       </c>
       <c r="B36">
@@ -2004,7 +1998,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="16">
+      <c r="A37" s="7">
         <v>44095.679050925901</v>
       </c>
       <c r="B37">
@@ -2027,7 +2021,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
+      <c r="A38" s="7">
         <v>44095.685995370397</v>
       </c>
       <c r="B38">
@@ -2050,7 +2044,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="16">
+      <c r="A39" s="7">
         <v>44095.692939814799</v>
       </c>
       <c r="B39">
@@ -2073,7 +2067,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40" s="7">
         <v>44095.699884259302</v>
       </c>
       <c r="B40">
@@ -2096,7 +2090,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="16">
+      <c r="A41" s="7">
         <v>44095.706828703696</v>
       </c>
       <c r="B41">
@@ -2119,7 +2113,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
+      <c r="A42" s="7">
         <v>44095.713773148098</v>
       </c>
       <c r="B42">
@@ -2142,7 +2136,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="16">
+      <c r="A43" s="7">
         <v>44095.720717592601</v>
       </c>
       <c r="B43">
@@ -2165,7 +2159,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
+      <c r="A44" s="7">
         <v>44095.727662037003</v>
       </c>
       <c r="B44">
@@ -2188,7 +2182,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="16">
+      <c r="A45" s="7">
         <v>44095.734606481499</v>
       </c>
       <c r="B45">
@@ -2211,7 +2205,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
+      <c r="A46" s="7">
         <v>44095.741550925901</v>
       </c>
       <c r="B46">
@@ -2234,7 +2228,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="16">
+      <c r="A47" s="7">
         <v>44095.748495370397</v>
       </c>
       <c r="B47">
@@ -2257,7 +2251,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="7">
         <v>44095.755439814799</v>
       </c>
       <c r="B48">
@@ -2280,7 +2274,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="16">
+      <c r="A49" s="7">
         <v>44095.762384259302</v>
       </c>
       <c r="B49">
@@ -2303,7 +2297,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
+      <c r="A50" s="7">
         <v>44095.769328703696</v>
       </c>
       <c r="B50">
@@ -2326,7 +2320,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="16">
+      <c r="A51" s="7">
         <v>44095.776273148098</v>
       </c>
       <c r="B51">
@@ -2349,7 +2343,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
+      <c r="A52" s="7">
         <v>44095.801909722206</v>
       </c>
       <c r="B52">
@@ -2372,7 +2366,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="16">
+      <c r="A53" s="7">
         <v>44096.389270833301</v>
       </c>
       <c r="B53">
@@ -2395,7 +2389,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
+      <c r="A54" s="7">
         <v>44096.396215277797</v>
       </c>
       <c r="B54">
@@ -2418,7 +2412,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="16">
+      <c r="A55" s="7">
         <v>44096.403159722198</v>
       </c>
       <c r="B55">
@@ -2441,7 +2435,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="16">
+      <c r="A56" s="7">
         <v>44096.410104166702</v>
       </c>
       <c r="B56">
@@ -2464,7 +2458,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="16">
+      <c r="A57" s="7">
         <v>44096.417048611103</v>
       </c>
       <c r="B57">
@@ -2487,7 +2481,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="16">
+      <c r="A58" s="7">
         <v>44096.4239930556</v>
       </c>
       <c r="B58">
@@ -2510,7 +2504,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="16">
+      <c r="A59" s="7">
         <v>44096.430937500001</v>
       </c>
       <c r="B59">
@@ -2533,7 +2527,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="16">
+      <c r="A60" s="7">
         <v>44096.437881944403</v>
       </c>
       <c r="B60">
@@ -2556,7 +2550,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="16">
+      <c r="A61" s="7">
         <v>44096.444826388899</v>
       </c>
       <c r="B61">
@@ -2579,7 +2573,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="16">
+      <c r="A62" s="7">
         <v>44096.451770833301</v>
       </c>
       <c r="B62">
@@ -2602,7 +2596,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="16">
+      <c r="A63" s="7">
         <v>44096.458715277797</v>
       </c>
       <c r="B63">
@@ -2625,7 +2619,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="16">
+      <c r="A64" s="7">
         <v>44096.465659722198</v>
       </c>
       <c r="B64">
@@ -2648,7 +2642,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="16">
+      <c r="A65" s="7">
         <v>44096.472604166702</v>
       </c>
       <c r="B65">
@@ -2671,7 +2665,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="16">
+      <c r="A66" s="7">
         <v>44096.479548611103</v>
       </c>
       <c r="B66">
@@ -2694,7 +2688,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="16">
+      <c r="A67" s="7">
         <v>44096.4864930556</v>
       </c>
       <c r="B67">
@@ -2717,7 +2711,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="16">
+      <c r="A68" s="7">
         <v>44096.493437500001</v>
       </c>
       <c r="B68">
@@ -2740,7 +2734,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="16">
+      <c r="A69" s="7">
         <v>44096.500381944403</v>
       </c>
       <c r="B69">
@@ -2763,7 +2757,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="16">
+      <c r="A70" s="7">
         <v>44096.507326388899</v>
       </c>
       <c r="B70">
@@ -2786,7 +2780,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="16">
+      <c r="A71" s="7">
         <v>44096.514270833301</v>
       </c>
       <c r="B71">
@@ -2809,7 +2803,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="16">
+      <c r="A72" s="7">
         <v>44096.521215277797</v>
       </c>
       <c r="B72">
@@ -2832,7 +2826,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="16">
+      <c r="A73" s="7">
         <v>44096.528159722198</v>
       </c>
       <c r="B73">
@@ -2855,7 +2849,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="16">
+      <c r="A74" s="7">
         <v>44096.535104166702</v>
       </c>
       <c r="B74">
@@ -2878,7 +2872,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="16">
+      <c r="A75" s="7">
         <v>44096.542048611103</v>
       </c>
       <c r="B75">
@@ -2901,7 +2895,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="16">
+      <c r="A76" s="7">
         <v>44096.5489930556</v>
       </c>
       <c r="B76">
@@ -2924,7 +2918,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="16">
+      <c r="A77" s="7">
         <v>44096.555937500001</v>
       </c>
       <c r="B77">
@@ -2947,7 +2941,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="16">
+      <c r="A78" s="7">
         <v>44096.562881944403</v>
       </c>
       <c r="B78">
@@ -2970,7 +2964,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="16">
+      <c r="A79" s="7">
         <v>44096.569826388899</v>
       </c>
       <c r="B79">
@@ -2993,7 +2987,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="16">
+      <c r="A80" s="7">
         <v>44096.576770833301</v>
       </c>
       <c r="B80">
@@ -3016,7 +3010,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="16">
+      <c r="A81" s="7">
         <v>44096.583715277797</v>
       </c>
       <c r="B81">
@@ -3039,7 +3033,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="16">
+      <c r="A82" s="7">
         <v>44096.590659722198</v>
       </c>
       <c r="B82">
@@ -3062,7 +3056,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="16">
+      <c r="A83" s="7">
         <v>44096.597604166702</v>
       </c>
       <c r="B83">
@@ -3085,7 +3079,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="16">
+      <c r="A84" s="7">
         <v>44096.604548611103</v>
       </c>
       <c r="B84">
@@ -3108,7 +3102,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="16">
+      <c r="A85" s="7">
         <v>44096.6114930556</v>
       </c>
       <c r="B85">
@@ -3131,7 +3125,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="16">
+      <c r="A86" s="7">
         <v>44096.618437500001</v>
       </c>
       <c r="B86">
@@ -3154,7 +3148,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="16">
+      <c r="A87" s="7">
         <v>44096.625381944403</v>
       </c>
       <c r="B87">
@@ -3177,7 +3171,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="16">
+      <c r="A88" s="7">
         <v>44096.632326388899</v>
       </c>
       <c r="B88">
@@ -3200,7 +3194,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="16">
+      <c r="A89" s="7">
         <v>44096.639270833301</v>
       </c>
       <c r="B89">
@@ -3223,7 +3217,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="16">
+      <c r="A90" s="7">
         <v>44096.646215277797</v>
       </c>
       <c r="B90">
@@ -3246,7 +3240,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="16">
+      <c r="A91" s="7">
         <v>44096.653159722198</v>
       </c>
       <c r="B91">
@@ -3269,7 +3263,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="16">
+      <c r="A92" s="7">
         <v>44096.660104166702</v>
       </c>
       <c r="B92">
@@ -3292,7 +3286,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="16">
+      <c r="A93" s="7">
         <v>44096.667048611103</v>
       </c>
       <c r="B93">
@@ -3315,7 +3309,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="16">
+      <c r="A94" s="7">
         <v>44096.6739930556</v>
       </c>
       <c r="B94">
@@ -3338,7 +3332,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="16">
+      <c r="A95" s="7">
         <v>44096.680937500001</v>
       </c>
       <c r="B95">
@@ -3361,7 +3355,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="16">
+      <c r="A96" s="7">
         <v>44096.687881944403</v>
       </c>
       <c r="B96">
@@ -3384,7 +3378,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="16">
+      <c r="A97" s="7">
         <v>44096.694826388899</v>
       </c>
       <c r="B97">
@@ -3407,7 +3401,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="16">
+      <c r="A98" s="7">
         <v>44096.701770833301</v>
       </c>
       <c r="B98">
@@ -3430,7 +3424,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="16">
+      <c r="A99" s="7">
         <v>44096.708715277797</v>
       </c>
       <c r="B99">
@@ -3453,7 +3447,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="16">
+      <c r="A100" s="7">
         <v>44096.715659722198</v>
       </c>
       <c r="B100">
@@ -3476,7 +3470,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="16">
+      <c r="A101" s="7">
         <v>44096.722604166702</v>
       </c>
       <c r="B101">
@@ -3499,7 +3493,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="16">
+      <c r="A102" s="7">
         <v>44096.729548611103</v>
       </c>
       <c r="B102">
@@ -3522,7 +3516,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="16">
+      <c r="A103" s="7">
         <v>44096.7364930556</v>
       </c>
       <c r="B103">
@@ -3545,7 +3539,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="16">
+      <c r="A104" s="7">
         <v>44096.743437500001</v>
       </c>
       <c r="B104">
@@ -3568,7 +3562,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="16">
+      <c r="A105" s="7">
         <v>44096.750381944403</v>
       </c>
       <c r="B105">
@@ -3591,7 +3585,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="16">
+      <c r="A106" s="7">
         <v>44096.757326388899</v>
       </c>
       <c r="B106">
@@ -3614,7 +3608,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="16">
+      <c r="A107" s="7">
         <v>44096.764270833301</v>
       </c>
       <c r="B107">
@@ -3637,7 +3631,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="16">
+      <c r="A108" s="7">
         <v>44096.771215277797</v>
       </c>
       <c r="B108">
@@ -3660,7 +3654,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="16">
+      <c r="A109" s="7">
         <v>44096.778159722198</v>
       </c>
       <c r="B109">
@@ -3683,7 +3677,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="16">
+      <c r="A110" s="7">
         <v>44096.785104166702</v>
       </c>
       <c r="B110">
@@ -3704,10 +3698,10 @@
       <c r="G110">
         <v>924</v>
       </c>
-      <c r="J110" s="9"/>
+      <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="16">
+      <c r="A111" s="7">
         <v>44096.8070717593</v>
       </c>
       <c r="B111">
@@ -3730,7 +3724,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="16">
+      <c r="A112" s="7">
         <v>44097.375509259298</v>
       </c>
       <c r="B112">
@@ -3753,7 +3747,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="16">
+      <c r="A113" s="7">
         <v>44097.3824537037</v>
       </c>
       <c r="B113">
@@ -3776,7 +3770,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="16">
+      <c r="A114" s="7">
         <v>44097.389398148101</v>
       </c>
       <c r="B114">
@@ -3799,7 +3793,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="16">
+      <c r="A115" s="7">
         <v>44097.396342592598</v>
       </c>
       <c r="B115">
@@ -3822,7 +3816,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="16">
+      <c r="A116" s="7">
         <v>44097.403287036999</v>
       </c>
       <c r="B116">
@@ -3845,7 +3839,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="16">
+      <c r="A117" s="7">
         <v>44097.410231481503</v>
       </c>
       <c r="B117">
@@ -3868,7 +3862,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="16">
+      <c r="A118" s="7">
         <v>44097.417175925897</v>
       </c>
       <c r="B118">
@@ -3891,7 +3885,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="16">
+      <c r="A119" s="7">
         <v>44097.4241203704</v>
       </c>
       <c r="B119">
@@ -3914,7 +3908,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="16">
+      <c r="A120" s="7">
         <v>44097.431064814802</v>
       </c>
       <c r="B120">
@@ -3937,7 +3931,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="16">
+      <c r="A121" s="7">
         <v>44097.438009259298</v>
       </c>
       <c r="B121">
@@ -3960,7 +3954,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="16">
+      <c r="A122" s="7">
         <v>44097.4449537037</v>
       </c>
       <c r="B122">
@@ -3983,7 +3977,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="16">
+      <c r="A123" s="7">
         <v>44097.451898148101</v>
       </c>
       <c r="B123">
@@ -4006,7 +4000,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="16">
+      <c r="A124" s="7">
         <v>44097.458842592598</v>
       </c>
       <c r="B124">
@@ -4029,7 +4023,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="16">
+      <c r="A125" s="7">
         <v>44097.465787036999</v>
       </c>
       <c r="B125">
@@ -4052,7 +4046,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="16">
+      <c r="A126" s="7">
         <v>44097.472731481503</v>
       </c>
       <c r="B126">
@@ -4075,7 +4069,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="16">
+      <c r="A127" s="7">
         <v>44097.479675925897</v>
       </c>
       <c r="B127">
@@ -4098,7 +4092,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="16">
+      <c r="A128" s="7">
         <v>44097.4866203704</v>
       </c>
       <c r="B128">
@@ -4121,7 +4115,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="16">
+      <c r="A129" s="7">
         <v>44097.493564814802</v>
       </c>
       <c r="B129">
@@ -4144,7 +4138,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="16">
+      <c r="A130" s="7">
         <v>44097.500509259298</v>
       </c>
       <c r="B130">
@@ -4167,7 +4161,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="16">
+      <c r="A131" s="7">
         <v>44097.5074537037</v>
       </c>
       <c r="B131">
@@ -4190,7 +4184,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="16">
+      <c r="A132" s="7">
         <v>44097.514398148101</v>
       </c>
       <c r="B132">
@@ -4213,7 +4207,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="16">
+      <c r="A133" s="7">
         <v>44097.521342592598</v>
       </c>
       <c r="B133">
@@ -4236,7 +4230,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="16">
+      <c r="A134" s="7">
         <v>44097.528287036999</v>
       </c>
       <c r="B134">
@@ -4259,7 +4253,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="16">
+      <c r="A135" s="7">
         <v>44097.535231481503</v>
       </c>
       <c r="B135">
@@ -4282,7 +4276,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="16">
+      <c r="A136" s="7">
         <v>44097.542175925897</v>
       </c>
       <c r="B136">
@@ -4305,7 +4299,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="16">
+      <c r="A137" s="7">
         <v>44097.5491203704</v>
       </c>
       <c r="B137">
@@ -4328,7 +4322,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="16">
+      <c r="A138" s="7">
         <v>44097.556064814802</v>
       </c>
       <c r="B138">
@@ -4351,7 +4345,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="16">
+      <c r="A139" s="7">
         <v>44097.563009259298</v>
       </c>
       <c r="B139">
@@ -4374,7 +4368,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="16">
+      <c r="A140" s="7">
         <v>44097.5699537037</v>
       </c>
       <c r="B140">
@@ -4397,7 +4391,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="16">
+      <c r="A141" s="7">
         <v>44097.576898148101</v>
       </c>
       <c r="B141">
@@ -4420,7 +4414,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="16">
+      <c r="A142" s="7">
         <v>44097.583842592598</v>
       </c>
       <c r="B142">
@@ -4443,7 +4437,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="16">
+      <c r="A143" s="7">
         <v>44097.590787036999</v>
       </c>
       <c r="B143">
@@ -4466,7 +4460,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A144" s="16">
+      <c r="A144" s="7">
         <v>44097.597731481503</v>
       </c>
       <c r="B144">
@@ -4489,7 +4483,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="16">
+      <c r="A145" s="7">
         <v>44097.604675925897</v>
       </c>
       <c r="B145">
@@ -4512,7 +4506,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="16">
+      <c r="A146" s="7">
         <v>44097.6116203704</v>
       </c>
       <c r="B146">
@@ -4535,7 +4529,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="16">
+      <c r="A147" s="7">
         <v>44097.618564814802</v>
       </c>
       <c r="B147">
@@ -4558,7 +4552,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="16">
+      <c r="A148" s="7">
         <v>44097.625509259298</v>
       </c>
       <c r="B148">
@@ -4581,7 +4575,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="16">
+      <c r="A149" s="7">
         <v>44097.6324537037</v>
       </c>
       <c r="B149">
@@ -4604,7 +4598,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A150" s="16">
+      <c r="A150" s="7">
         <v>44097.639398148101</v>
       </c>
       <c r="B150">
@@ -4627,7 +4621,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="16">
+      <c r="A151" s="7">
         <v>44097.646342592598</v>
       </c>
       <c r="B151">
@@ -4650,7 +4644,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A152" s="16">
+      <c r="A152" s="7">
         <v>44097.653287036999</v>
       </c>
       <c r="B152">
@@ -4673,7 +4667,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A153" s="16">
+      <c r="A153" s="7">
         <v>44097.660231481503</v>
       </c>
       <c r="B153">
@@ -4696,7 +4690,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="16">
+      <c r="A154" s="7">
         <v>44097.667175925897</v>
       </c>
       <c r="B154">
@@ -4719,7 +4713,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="16">
+      <c r="A155" s="7">
         <v>44097.6741203704</v>
       </c>
       <c r="B155">
@@ -4742,7 +4736,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A156" s="16">
+      <c r="A156" s="7">
         <v>44097.681064814802</v>
       </c>
       <c r="B156">
@@ -4765,7 +4759,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A157" s="16">
+      <c r="A157" s="7">
         <v>44097.688009259298</v>
       </c>
       <c r="B157">
@@ -4788,7 +4782,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A158" s="16">
+      <c r="A158" s="7">
         <v>44097.6949537037</v>
       </c>
       <c r="B158">
@@ -4811,7 +4805,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="16">
+      <c r="A159" s="7">
         <v>44097.701898148101</v>
       </c>
       <c r="B159">
@@ -4834,7 +4828,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="16">
+      <c r="A160" s="7">
         <v>44097.708842592598</v>
       </c>
       <c r="B160">
@@ -4857,7 +4851,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A161" s="16">
+      <c r="A161" s="7">
         <v>44097.715787036999</v>
       </c>
       <c r="B161">
@@ -4880,7 +4874,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A162" s="16">
+      <c r="A162" s="7">
         <v>44097.722731481503</v>
       </c>
       <c r="B162">
@@ -4903,7 +4897,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A163" s="16">
+      <c r="A163" s="7">
         <v>44097.729675925897</v>
       </c>
       <c r="B163">
@@ -4926,7 +4920,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A164" s="16">
+      <c r="A164" s="7">
         <v>44097.7366203704</v>
       </c>
       <c r="B164">
@@ -4949,7 +4943,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A165" s="16">
+      <c r="A165" s="7">
         <v>44097.743564814802</v>
       </c>
       <c r="B165">
@@ -4972,7 +4966,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A166" s="16">
+      <c r="A166" s="7">
         <v>44097.750509259298</v>
       </c>
       <c r="B166">
@@ -4995,7 +4989,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A167" s="16">
+      <c r="A167" s="7">
         <v>44097.7574537037</v>
       </c>
       <c r="B167">
@@ -5018,7 +5012,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="16">
+      <c r="A168" s="7">
         <v>44097.764398148101</v>
       </c>
       <c r="B168">
@@ -5041,7 +5035,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="16">
+      <c r="A169" s="7">
         <v>44097.771342592598</v>
       </c>
       <c r="B169">
@@ -5064,7 +5058,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A170" s="16">
+      <c r="A170" s="7">
         <v>44097.778287036999</v>
       </c>
       <c r="B170">
@@ -5087,7 +5081,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A171" s="16">
+      <c r="A171" s="7">
         <v>44097.785231481503</v>
       </c>
       <c r="B171">
@@ -5110,7 +5104,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A172" s="16">
+      <c r="A172" s="7">
         <v>44097.792175925897</v>
       </c>
       <c r="B172">
@@ -5133,7 +5127,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A173" s="16">
+      <c r="A173" s="7">
         <v>44097.7991203704</v>
       </c>
       <c r="B173">
@@ -5156,7 +5150,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A174" s="16">
+      <c r="A174" s="7">
         <v>44097.806064814802</v>
       </c>
       <c r="B174">
@@ -5179,7 +5173,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A175" s="16">
+      <c r="A175" s="7">
         <v>44097.813009259298</v>
       </c>
       <c r="B175">
@@ -5202,7 +5196,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A176" s="16">
+      <c r="A176" s="7">
         <v>44097.8199537037</v>
       </c>
       <c r="B176">
@@ -5225,7 +5219,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A177" s="16">
+      <c r="A177" s="7">
         <v>44097.826898148101</v>
       </c>
       <c r="B177">
@@ -5248,7 +5242,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A178" s="16">
+      <c r="A178" s="7">
         <v>44097.848657407449</v>
       </c>
       <c r="B178">
@@ -5271,7 +5265,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="16">
+      <c r="A179" s="7">
         <v>44098.4383101852</v>
       </c>
       <c r="B179">
@@ -5294,7 +5288,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="16">
+      <c r="A180" s="7">
         <v>44098.445254629602</v>
       </c>
       <c r="B180">
@@ -5317,7 +5311,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="16">
+      <c r="A181" s="7">
         <v>44098.452199074098</v>
       </c>
       <c r="B181">
@@ -5340,7 +5334,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="16">
+      <c r="A182" s="7">
         <v>44098.459143518499</v>
       </c>
       <c r="B182">
@@ -5363,7 +5357,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="16">
+      <c r="A183" s="7">
         <v>44098.466087963003</v>
       </c>
       <c r="B183">
@@ -5386,7 +5380,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="16">
+      <c r="A184" s="7">
         <v>44098.473032407397</v>
       </c>
       <c r="B184">
@@ -5409,7 +5403,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="16">
+      <c r="A185" s="7">
         <v>44098.479976851799</v>
       </c>
       <c r="B185">
@@ -5432,7 +5426,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="16">
+      <c r="A186" s="7">
         <v>44098.486921296302</v>
       </c>
       <c r="B186">
@@ -5455,7 +5449,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="16">
+      <c r="A187" s="7">
         <v>44098.493865740696</v>
       </c>
       <c r="B187">
@@ -5478,7 +5472,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="16">
+      <c r="A188" s="7">
         <v>44098.5008101852</v>
       </c>
       <c r="B188">
@@ -5501,7 +5495,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="16">
+      <c r="A189" s="7">
         <v>44098.507754629602</v>
       </c>
       <c r="B189">
@@ -5524,7 +5518,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="16">
+      <c r="A190" s="7">
         <v>44098.514699074098</v>
       </c>
       <c r="B190">
@@ -5547,7 +5541,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="16">
+      <c r="A191" s="7">
         <v>44098.521643518499</v>
       </c>
       <c r="B191">
@@ -5570,7 +5564,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="16">
+      <c r="A192" s="7">
         <v>44098.528587963003</v>
       </c>
       <c r="B192">
@@ -5593,7 +5587,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="16">
+      <c r="A193" s="7">
         <v>44098.535532407397</v>
       </c>
       <c r="B193">
@@ -5616,7 +5610,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="16">
+      <c r="A194" s="7">
         <v>44098.542476851799</v>
       </c>
       <c r="B194">
@@ -5639,7 +5633,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="16">
+      <c r="A195" s="7">
         <v>44098.549421296302</v>
       </c>
       <c r="B195">
@@ -5662,7 +5656,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" s="16">
+      <c r="A196" s="7">
         <v>44098.556365740696</v>
       </c>
       <c r="B196">
@@ -5685,7 +5679,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" s="16">
+      <c r="A197" s="7">
         <v>44098.5633101852</v>
       </c>
       <c r="B197">
@@ -5708,7 +5702,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A198" s="16">
+      <c r="A198" s="7">
         <v>44098.570254629602</v>
       </c>
       <c r="B198">
@@ -5731,7 +5725,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A199" s="16">
+      <c r="A199" s="7">
         <v>44098.577199074098</v>
       </c>
       <c r="B199">
@@ -5754,7 +5748,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A200" s="16">
+      <c r="A200" s="7">
         <v>44098.584143518499</v>
       </c>
       <c r="B200">
@@ -5777,7 +5771,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="16">
+      <c r="A201" s="7">
         <v>44098.591087963003</v>
       </c>
       <c r="B201">
@@ -5800,7 +5794,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" s="16">
+      <c r="A202" s="7">
         <v>44098.598032407397</v>
       </c>
       <c r="B202">
@@ -5823,7 +5817,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" s="16">
+      <c r="A203" s="7">
         <v>44098.604976851799</v>
       </c>
       <c r="B203">
@@ -5846,7 +5840,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" s="16">
+      <c r="A204" s="7">
         <v>44098.611921296302</v>
       </c>
       <c r="B204">
@@ -5869,7 +5863,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A205" s="16">
+      <c r="A205" s="7">
         <v>44098.618865740696</v>
       </c>
       <c r="B205">
@@ -5892,7 +5886,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A206" s="16">
+      <c r="A206" s="7">
         <v>44098.6258101852</v>
       </c>
       <c r="B206">
@@ -5915,7 +5909,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" s="16">
+      <c r="A207" s="7">
         <v>44098.632754629602</v>
       </c>
       <c r="B207">
@@ -5938,7 +5932,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A208" s="16">
+      <c r="A208" s="7">
         <v>44098.639699074098</v>
       </c>
       <c r="B208">
@@ -5961,7 +5955,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="16">
+      <c r="A209" s="7">
         <v>44098.646643518499</v>
       </c>
       <c r="B209">
@@ -5984,7 +5978,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" s="16">
+      <c r="A210" s="7">
         <v>44098.653587963003</v>
       </c>
       <c r="B210">
@@ -6007,7 +6001,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" s="16">
+      <c r="A211" s="7">
         <v>44098.660532407397</v>
       </c>
       <c r="B211">
@@ -6030,7 +6024,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" s="16">
+      <c r="A212" s="7">
         <v>44098.667476851799</v>
       </c>
       <c r="B212">
@@ -6053,7 +6047,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="16">
+      <c r="A213" s="7">
         <v>44098.674421296302</v>
       </c>
       <c r="B213">
@@ -6076,7 +6070,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" s="16">
+      <c r="A214" s="7">
         <v>44098.681365740696</v>
       </c>
       <c r="B214">
@@ -6099,7 +6093,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" s="16">
+      <c r="A215" s="7">
         <v>44098.6883101852</v>
       </c>
       <c r="B215">
@@ -6122,7 +6116,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" s="16">
+      <c r="A216" s="7">
         <v>44098.695254629602</v>
       </c>
       <c r="B216">
@@ -6145,7 +6139,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" s="16">
+      <c r="A217" s="7">
         <v>44098.702199074098</v>
       </c>
       <c r="B217">
@@ -6168,7 +6162,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" s="16">
+      <c r="A218" s="7">
         <v>44098.709143518499</v>
       </c>
       <c r="B218">
@@ -6191,7 +6185,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A219" s="16">
+      <c r="A219" s="7">
         <v>44098.716087963003</v>
       </c>
       <c r="B219">
@@ -6214,7 +6208,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A220" s="16">
+      <c r="A220" s="7">
         <v>44098.723032407397</v>
       </c>
       <c r="B220">
@@ -6237,7 +6231,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A221" s="16">
+      <c r="A221" s="7">
         <v>44098.729976851799</v>
       </c>
       <c r="B221">
@@ -6260,7 +6254,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A222" s="16">
+      <c r="A222" s="7">
         <v>44098.736921296302</v>
       </c>
       <c r="B222">
@@ -6283,7 +6277,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A223" s="16">
+      <c r="A223" s="7">
         <v>44098.743865740696</v>
       </c>
       <c r="B223">
@@ -6306,7 +6300,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" s="16">
+      <c r="A224" s="7">
         <v>44098.7508101852</v>
       </c>
       <c r="B224">
@@ -6329,7 +6323,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A225" s="16">
+      <c r="A225" s="7">
         <v>44098.757754629602</v>
       </c>
       <c r="B225">
@@ -6352,7 +6346,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A226" s="16">
+      <c r="A226" s="7">
         <v>44098.764699074098</v>
       </c>
       <c r="B226">
@@ -6375,7 +6369,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A227" s="16">
+      <c r="A227" s="7">
         <v>44098.771643518499</v>
       </c>
       <c r="B227">
@@ -6398,7 +6392,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" s="16">
+      <c r="A228" s="7">
         <v>44098.778587963003</v>
       </c>
       <c r="B228">
@@ -6421,7 +6415,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" s="16">
+      <c r="A229" s="7">
         <v>44098.785532407397</v>
       </c>
       <c r="B229">
@@ -6444,7 +6438,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" s="16">
+      <c r="A230" s="7">
         <v>44098.810347222199</v>
       </c>
       <c r="B230">
@@ -6468,7 +6462,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" s="16">
+      <c r="A231" s="7">
         <v>44098.817291666703</v>
       </c>
       <c r="B231">
@@ -6491,7 +6485,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" s="16">
+      <c r="A232" s="7">
         <v>44098.824236111097</v>
       </c>
       <c r="B232">
@@ -6514,7 +6508,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" s="16">
+      <c r="A233" s="7">
         <v>44098.8311805556</v>
       </c>
       <c r="B233">
@@ -6537,7 +6531,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" s="16">
+      <c r="A234" s="7">
         <v>44098.856527777782</v>
       </c>
       <c r="B234">
@@ -6560,7 +6554,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" s="16">
+      <c r="A235" s="7">
         <v>44099.367928240703</v>
       </c>
       <c r="B235">
@@ -6583,7 +6577,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" s="16">
+      <c r="A236" s="7">
         <v>44099.374872685199</v>
       </c>
       <c r="B236">
@@ -6606,7 +6600,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" s="16">
+      <c r="A237" s="7">
         <v>44099.381817129601</v>
       </c>
       <c r="B237">
@@ -6629,7 +6623,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" s="16">
+      <c r="A238" s="7">
         <v>44099.388761574097</v>
       </c>
       <c r="B238">
@@ -6652,7 +6646,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" s="16">
+      <c r="A239" s="7">
         <v>44099.395706018498</v>
       </c>
       <c r="B239">
@@ -6675,7 +6669,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" s="16">
+      <c r="A240" s="7">
         <v>44099.402650463002</v>
       </c>
       <c r="B240">
@@ -6698,7 +6692,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" s="16">
+      <c r="A241" s="7">
         <v>44099.409594907404</v>
       </c>
       <c r="B241">
@@ -6721,7 +6715,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A242" s="16">
+      <c r="A242" s="7">
         <v>44099.416539351798</v>
       </c>
       <c r="B242">
@@ -6744,7 +6738,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A243" s="16">
+      <c r="A243" s="7">
         <v>44099.423483796301</v>
       </c>
       <c r="B243">
@@ -6767,7 +6761,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" s="16">
+      <c r="A244" s="7">
         <v>44099.430428240703</v>
       </c>
       <c r="B244">
@@ -6790,7 +6784,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A245" s="16">
+      <c r="A245" s="7">
         <v>44099.437372685199</v>
       </c>
       <c r="B245">
@@ -6813,7 +6807,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A246" s="16">
+      <c r="A246" s="7">
         <v>44099.444317129601</v>
       </c>
       <c r="B246">
@@ -6836,7 +6830,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A247" s="16">
+      <c r="A247" s="7">
         <v>44099.451261574097</v>
       </c>
       <c r="B247">
@@ -6859,7 +6853,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A248" s="16">
+      <c r="A248" s="7">
         <v>44099.458206018498</v>
       </c>
       <c r="B248">
@@ -6882,7 +6876,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A249" s="16">
+      <c r="A249" s="7">
         <v>44099.465150463002</v>
       </c>
       <c r="B249">
@@ -6905,7 +6899,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A250" s="16">
+      <c r="A250" s="7">
         <v>44099.472094907404</v>
       </c>
       <c r="B250">
@@ -6928,7 +6922,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A251" s="16">
+      <c r="A251" s="7">
         <v>44099.479039351798</v>
       </c>
       <c r="B251">
@@ -6951,7 +6945,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A252" s="16">
+      <c r="A252" s="7">
         <v>44099.485983796301</v>
       </c>
       <c r="B252">
@@ -6974,7 +6968,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A253" s="16">
+      <c r="A253" s="7">
         <v>44099.492928240703</v>
       </c>
       <c r="B253">
@@ -6997,7 +6991,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A254" s="16">
+      <c r="A254" s="7">
         <v>44099.499872685199</v>
       </c>
       <c r="B254">
@@ -7020,7 +7014,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A255" s="16">
+      <c r="A255" s="7">
         <v>44099.506817129601</v>
       </c>
       <c r="B255">
@@ -7043,7 +7037,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A256" s="16">
+      <c r="A256" s="7">
         <v>44099.513761574097</v>
       </c>
       <c r="B256">
@@ -7066,7 +7060,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="16">
+      <c r="A257" s="7">
         <v>44099.520706018498</v>
       </c>
       <c r="B257">
@@ -7089,7 +7083,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="16">
+      <c r="A258" s="7">
         <v>44099.527650463002</v>
       </c>
       <c r="B258">
@@ -7112,7 +7106,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="16">
+      <c r="A259" s="7">
         <v>44099.534594907404</v>
       </c>
       <c r="B259">
@@ -7135,7 +7129,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="16">
+      <c r="A260" s="7">
         <v>44099.541539351798</v>
       </c>
       <c r="B260">
@@ -7158,7 +7152,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="16">
+      <c r="A261" s="7">
         <v>44099.548483796301</v>
       </c>
       <c r="B261">
@@ -7181,7 +7175,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="16">
+      <c r="A262" s="7">
         <v>44099.555428240703</v>
       </c>
       <c r="B262">
@@ -7204,7 +7198,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="16">
+      <c r="A263" s="7">
         <v>44099.562372685199</v>
       </c>
       <c r="B263">
@@ -7227,7 +7221,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="16">
+      <c r="A264" s="7">
         <v>44099.569317129601</v>
       </c>
       <c r="B264">
@@ -7250,7 +7244,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="16">
+      <c r="A265" s="7">
         <v>44099.576261574097</v>
       </c>
       <c r="B265">
@@ -7273,7 +7267,7 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="16">
+      <c r="A266" s="7">
         <v>44099.583206018498</v>
       </c>
       <c r="B266">
@@ -7296,7 +7290,7 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="16">
+      <c r="A267" s="7">
         <v>44099.590150463002</v>
       </c>
       <c r="B267">
@@ -7319,7 +7313,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="16">
+      <c r="A268" s="7">
         <v>44099.597094907404</v>
       </c>
       <c r="B268">
@@ -7342,7 +7336,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="16">
+      <c r="A269" s="7">
         <v>44099.604039351798</v>
       </c>
       <c r="B269">
@@ -7365,7 +7359,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="16">
+      <c r="A270" s="7">
         <v>44099.610983796301</v>
       </c>
       <c r="B270">
@@ -7388,7 +7382,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="16">
+      <c r="A271" s="7">
         <v>44099.617928240703</v>
       </c>
       <c r="B271">
@@ -7411,7 +7405,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A272" s="16">
+      <c r="A272" s="7">
         <v>44099.624872685199</v>
       </c>
       <c r="B272">
@@ -7434,7 +7428,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A273" s="16">
+      <c r="A273" s="7">
         <v>44099.631817129601</v>
       </c>
       <c r="B273">
@@ -7457,7 +7451,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A274" s="16">
+      <c r="A274" s="7">
         <v>44099.638761574097</v>
       </c>
       <c r="B274">
@@ -7480,7 +7474,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A275" s="16">
+      <c r="A275" s="7">
         <v>44099.645706018498</v>
       </c>
       <c r="B275">
@@ -7503,7 +7497,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A276" s="16">
+      <c r="A276" s="7">
         <v>44099.652650463002</v>
       </c>
       <c r="B276">
@@ -7526,7 +7520,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A277" s="16">
+      <c r="A277" s="7">
         <v>44099.659594907404</v>
       </c>
       <c r="B277">
@@ -7549,7 +7543,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A278" s="16">
+      <c r="A278" s="7">
         <v>44099.666539351798</v>
       </c>
       <c r="B278">
@@ -7572,7 +7566,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A279" s="16">
+      <c r="A279" s="7">
         <v>44099.673483796301</v>
       </c>
       <c r="B279">
@@ -7595,7 +7589,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A280" s="16">
+      <c r="A280" s="7">
         <v>44099.680428240703</v>
       </c>
       <c r="B280">
@@ -7618,7 +7612,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A281" s="16">
+      <c r="A281" s="7">
         <v>44099.687372685199</v>
       </c>
       <c r="B281">
@@ -7641,7 +7635,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A282" s="16">
+      <c r="A282" s="7">
         <v>44099.694317129601</v>
       </c>
       <c r="B282">
@@ -7664,7 +7658,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A283" s="16">
+      <c r="A283" s="7">
         <v>44099.701261574097</v>
       </c>
       <c r="B283">
@@ -7687,7 +7681,7 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A284" s="16">
+      <c r="A284" s="7">
         <v>44099.708206018498</v>
       </c>
       <c r="B284">
@@ -7710,7 +7704,7 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A285" s="16">
+      <c r="A285" s="7">
         <v>44099.715150463002</v>
       </c>
       <c r="B285">
@@ -7733,7 +7727,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A286" s="16">
+      <c r="A286" s="7">
         <v>44099.722094907404</v>
       </c>
       <c r="B286">
@@ -7756,7 +7750,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A287" s="16">
+      <c r="A287" s="7">
         <v>44099.729039351798</v>
       </c>
       <c r="B287">
@@ -7779,7 +7773,7 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A288" s="16">
+      <c r="A288" s="7">
         <v>44099.735983796301</v>
       </c>
       <c r="B288">
@@ -7802,7 +7796,7 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A289" s="16">
+      <c r="A289" s="7">
         <v>44099.742928240703</v>
       </c>
       <c r="B289">
@@ -7825,7 +7819,7 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A290" s="16">
+      <c r="A290" s="7">
         <v>44099.749872685199</v>
       </c>
       <c r="B290">
@@ -7848,7 +7842,7 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A291" s="16">
+      <c r="A291" s="7">
         <v>44099.756817129601</v>
       </c>
       <c r="B291">
@@ -7871,7 +7865,7 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A292" s="16">
+      <c r="A292" s="7">
         <v>44099.763761574097</v>
       </c>
       <c r="B292">
@@ -7894,7 +7888,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A293" s="16">
+      <c r="A293" s="7">
         <v>44099.770706018498</v>
       </c>
       <c r="B293">
@@ -7917,7 +7911,7 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A294" s="16">
+      <c r="A294" s="7">
         <v>44099.777650463002</v>
       </c>
       <c r="B294">
@@ -7940,7 +7934,7 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A295" s="16">
+      <c r="A295" s="7">
         <v>44099.784594907404</v>
       </c>
       <c r="B295">
@@ -7963,7 +7957,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A296" s="16">
+      <c r="A296" s="7">
         <v>44099.791539351798</v>
       </c>
       <c r="B296">
@@ -7986,7 +7980,7 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A297" s="16">
+      <c r="A297" s="7">
         <v>44099.798483796301</v>
       </c>
       <c r="B297">
@@ -8009,7 +8003,7 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A298" s="16">
+      <c r="A298" s="7">
         <v>44099.805428240703</v>
       </c>
       <c r="B298">
@@ -8032,7 +8026,7 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A299" s="16">
+      <c r="A299" s="7">
         <v>44099.812372685199</v>
       </c>
       <c r="B299">
@@ -8055,7 +8049,7 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A300" s="16">
+      <c r="A300" s="7">
         <v>44099.819317129601</v>
       </c>
       <c r="B300">
@@ -8078,7 +8072,7 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A301" s="16">
+      <c r="A301" s="7">
         <v>44099.84913194448</v>
       </c>
       <c r="B301">
@@ -8101,7 +8095,7 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A302" s="16">
+      <c r="A302" s="7">
         <v>44100.400902777801</v>
       </c>
       <c r="B302">
@@ -8124,7 +8118,7 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A303" s="16">
+      <c r="A303" s="7">
         <v>44100.407847222203</v>
       </c>
       <c r="B303">
@@ -8147,7 +8141,7 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A304" s="16">
+      <c r="A304" s="7">
         <v>44100.414791666699</v>
       </c>
       <c r="B304">
@@ -8170,7 +8164,7 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A305" s="16">
+      <c r="A305" s="7">
         <v>44100.4217361111</v>
       </c>
       <c r="B305">
@@ -8193,7 +8187,7 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A306" s="16">
+      <c r="A306" s="7">
         <v>44100.435347222199</v>
       </c>
       <c r="B306">
@@ -8216,7 +8210,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A307" s="16">
+      <c r="A307" s="7">
         <v>44100.442291666703</v>
       </c>
       <c r="B307">
@@ -8239,7 +8233,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A308" s="16">
+      <c r="A308" s="7">
         <v>44100.449236111097</v>
       </c>
       <c r="B308">
@@ -8262,7 +8256,7 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A309" s="16">
+      <c r="A309" s="7">
         <v>44100.4561805556</v>
       </c>
       <c r="B309">
@@ -8285,7 +8279,7 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A310" s="16">
+      <c r="A310" s="7">
         <v>44100.463125000002</v>
       </c>
       <c r="B310">
@@ -8308,7 +8302,7 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A311" s="16">
+      <c r="A311" s="7">
         <v>44100.470069444404</v>
       </c>
       <c r="B311">
@@ -8331,7 +8325,7 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A312" s="16">
+      <c r="A312" s="7">
         <v>44100.482199074097</v>
       </c>
       <c r="B312">
@@ -8354,7 +8348,7 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A313" s="16">
+      <c r="A313" s="7">
         <v>44100.489143518498</v>
       </c>
       <c r="B313">
@@ -8377,7 +8371,7 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A314" s="16">
+      <c r="A314" s="7">
         <v>44100.496087963002</v>
       </c>
       <c r="B314">
@@ -8400,7 +8394,7 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A315" s="16">
+      <c r="A315" s="7">
         <v>44100.503032407403</v>
       </c>
       <c r="B315">
@@ -8423,7 +8417,7 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A316" s="16">
+      <c r="A316" s="7">
         <v>44100.509976851798</v>
       </c>
       <c r="B316">
@@ -8446,7 +8440,7 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A317" s="16">
+      <c r="A317" s="7">
         <v>44100.516921296301</v>
       </c>
       <c r="B317">
@@ -8469,7 +8463,7 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A318" s="16">
+      <c r="A318" s="7">
         <v>44100.523865740703</v>
       </c>
       <c r="B318">
@@ -8492,7 +8486,7 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A319" s="16">
+      <c r="A319" s="7">
         <v>44100.530810185199</v>
       </c>
       <c r="B319">
@@ -8515,7 +8509,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A320" s="16">
+      <c r="A320" s="7">
         <v>44100.5377546296</v>
       </c>
       <c r="B320">
@@ -8538,7 +8532,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A321" s="16">
+      <c r="A321" s="7">
         <v>44100.544699074097</v>
       </c>
       <c r="B321">
@@ -8561,7 +8555,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A322" s="16">
+      <c r="A322" s="7">
         <v>44100.551643518498</v>
       </c>
       <c r="B322">
@@ -8584,7 +8578,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A323" s="16">
+      <c r="A323" s="7">
         <v>44100.558587963002</v>
       </c>
       <c r="B323">
@@ -8607,7 +8601,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A324" s="16">
+      <c r="A324" s="7">
         <v>44100.565532407403</v>
       </c>
       <c r="B324">
@@ -8630,7 +8624,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A325" s="16">
+      <c r="A325" s="7">
         <v>44100.572476851798</v>
       </c>
       <c r="B325">
@@ -8653,7 +8647,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A326" s="16">
+      <c r="A326" s="7">
         <v>44100.579421296301</v>
       </c>
       <c r="B326">
@@ -8676,7 +8670,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A327" s="16">
+      <c r="A327" s="7">
         <v>44100.586365740703</v>
       </c>
       <c r="B327">
@@ -8699,7 +8693,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A328" s="16">
+      <c r="A328" s="7">
         <v>44100.593310185199</v>
       </c>
       <c r="B328">
@@ -8722,7 +8716,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A329" s="16">
+      <c r="A329" s="7">
         <v>44100.6002546296</v>
       </c>
       <c r="B329">
@@ -8745,7 +8739,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A330" s="16">
+      <c r="A330" s="7">
         <v>44100.607199074097</v>
       </c>
       <c r="B330">
@@ -8768,7 +8762,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A331" s="16">
+      <c r="A331" s="7">
         <v>44100.614143518498</v>
       </c>
       <c r="B331">
@@ -8791,7 +8785,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A332" s="16">
+      <c r="A332" s="7">
         <v>44100.621087963002</v>
       </c>
       <c r="B332">
@@ -8814,7 +8808,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A333" s="16">
+      <c r="A333" s="7">
         <v>44100.628032407403</v>
       </c>
       <c r="B333">
@@ -8837,7 +8831,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A334" s="16">
+      <c r="A334" s="7">
         <v>44100.634976851798</v>
       </c>
       <c r="B334">
@@ -8860,7 +8854,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A335" s="16">
+      <c r="A335" s="7">
         <v>44100.641921296301</v>
       </c>
       <c r="B335">
@@ -8883,7 +8877,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A336" s="16">
+      <c r="A336" s="7">
         <v>44100.648865740703</v>
       </c>
       <c r="B336">
@@ -8906,7 +8900,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A337" s="16">
+      <c r="A337" s="7">
         <v>44100.655810185199</v>
       </c>
       <c r="B337">
@@ -8929,7 +8923,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A338" s="16">
+      <c r="A338" s="7">
         <v>44100.6627546296</v>
       </c>
       <c r="B338">
@@ -8952,7 +8946,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A339" s="16">
+      <c r="A339" s="7">
         <v>44100.669699074097</v>
       </c>
       <c r="B339">
@@ -8975,7 +8969,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A340" s="16">
+      <c r="A340" s="7">
         <v>44100.676643518498</v>
       </c>
       <c r="B340">
@@ -8998,7 +8992,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A341" s="16">
+      <c r="A341" s="7">
         <v>44100.683587963002</v>
       </c>
       <c r="B341">
@@ -9021,7 +9015,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A342" s="16">
+      <c r="A342" s="7">
         <v>44100.690532407403</v>
       </c>
       <c r="B342">
@@ -9044,7 +9038,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A343" s="16">
+      <c r="A343" s="7">
         <v>44100.697476851798</v>
       </c>
       <c r="B343">
@@ -9067,7 +9061,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A344" s="16">
+      <c r="A344" s="7">
         <v>44100.704421296301</v>
       </c>
       <c r="B344">
@@ -9090,7 +9084,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A345" s="16">
+      <c r="A345" s="7">
         <v>44100.711365740703</v>
       </c>
       <c r="B345">
@@ -9113,7 +9107,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A346" s="16">
+      <c r="A346" s="7">
         <v>44100.718310185199</v>
       </c>
       <c r="B346">
@@ -9136,7 +9130,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A347" s="16">
+      <c r="A347" s="7">
         <v>44100.7252546296</v>
       </c>
       <c r="B347">
@@ -9159,7 +9153,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A348" s="16">
+      <c r="A348" s="7">
         <v>44100.732199074097</v>
       </c>
       <c r="B348">
@@ -9182,7 +9176,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A349" s="16">
+      <c r="A349" s="7">
         <v>44100.739143518498</v>
       </c>
       <c r="B349">
@@ -9205,7 +9199,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A350" s="16">
+      <c r="A350" s="7">
         <v>44100.746087963002</v>
       </c>
       <c r="B350">
@@ -9228,7 +9222,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A351" s="16">
+      <c r="A351" s="7">
         <v>44100.753032407403</v>
       </c>
       <c r="B351">
@@ -9251,7 +9245,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A352" s="16">
+      <c r="A352" s="7">
         <v>44100.759976851798</v>
       </c>
       <c r="B352">
@@ -9274,7 +9268,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A353" s="16">
+      <c r="A353" s="7">
         <v>44100.766921296301</v>
       </c>
       <c r="B353">
@@ -9297,7 +9291,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A354" s="16">
+      <c r="A354" s="7">
         <v>44100.773865740703</v>
       </c>
       <c r="B354">
@@ -9320,7 +9314,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A355" s="16">
+      <c r="A355" s="7">
         <v>44100.780810185199</v>
       </c>
       <c r="B355">
@@ -9343,7 +9337,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A356" s="16">
+      <c r="A356" s="7">
         <v>44100.805127314801</v>
       </c>
       <c r="B356">
@@ -9366,7 +9360,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A357" s="16">
+      <c r="A357" s="7">
         <v>44101.449837963002</v>
       </c>
       <c r="B357">
@@ -9389,7 +9383,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A358" s="16">
+      <c r="A358" s="7">
         <v>44101.456782407397</v>
       </c>
       <c r="B358">
@@ -9412,7 +9406,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A359" s="16">
+      <c r="A359" s="7">
         <v>44101.463726851798</v>
       </c>
       <c r="B359">
@@ -9435,7 +9429,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A360" s="16">
+      <c r="A360" s="7">
         <v>44101.470671296302</v>
       </c>
       <c r="B360">
@@ -9458,7 +9452,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A361" s="16">
+      <c r="A361" s="7">
         <v>44101.477615740703</v>
       </c>
       <c r="B361">
@@ -9481,7 +9475,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A362" s="16">
+      <c r="A362" s="7">
         <v>44101.484560185199</v>
       </c>
       <c r="B362">
@@ -9504,7 +9498,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A363" s="16">
+      <c r="A363" s="7">
         <v>44101.491504629601</v>
       </c>
       <c r="B363">
@@ -9527,7 +9521,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A364" s="16">
+      <c r="A364" s="7">
         <v>44101.498449074097</v>
       </c>
       <c r="B364">
@@ -9550,7 +9544,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A365" s="16">
+      <c r="A365" s="7">
         <v>44101.505393518499</v>
       </c>
       <c r="B365">
@@ -9573,7 +9567,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A366" s="16">
+      <c r="A366" s="7">
         <v>44101.512337963002</v>
       </c>
       <c r="B366">
@@ -9596,7 +9590,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A367" s="16">
+      <c r="A367" s="7">
         <v>44101.519282407397</v>
       </c>
       <c r="B367">
@@ -9619,7 +9613,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A368" s="16">
+      <c r="A368" s="7">
         <v>44101.526226851798</v>
       </c>
       <c r="B368">
@@ -9642,7 +9636,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A369" s="16">
+      <c r="A369" s="7">
         <v>44101.533171296302</v>
       </c>
       <c r="B369">
@@ -9665,7 +9659,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A370" s="16">
+      <c r="A370" s="7">
         <v>44101.540115740703</v>
       </c>
       <c r="B370">
@@ -9688,7 +9682,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A371" s="16">
+      <c r="A371" s="7">
         <v>44101.547060185199</v>
       </c>
       <c r="B371">
@@ -9711,7 +9705,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A372" s="16">
+      <c r="A372" s="7">
         <v>44101.554004629601</v>
       </c>
       <c r="B372">
@@ -9734,7 +9728,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A373" s="16">
+      <c r="A373" s="7">
         <v>44101.560949074097</v>
       </c>
       <c r="B373">
@@ -9757,7 +9751,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A374" s="16">
+      <c r="A374" s="7">
         <v>44101.567893518499</v>
       </c>
       <c r="B374">
@@ -9780,7 +9774,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A375" s="16">
+      <c r="A375" s="7">
         <v>44101.574837963002</v>
       </c>
       <c r="B375">
@@ -9803,7 +9797,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A376" s="16">
+      <c r="A376" s="7">
         <v>44101.581782407397</v>
       </c>
       <c r="B376">
@@ -9826,7 +9820,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A377" s="16">
+      <c r="A377" s="7">
         <v>44101.588726851798</v>
       </c>
       <c r="B377">
@@ -9849,7 +9843,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A378" s="16">
+      <c r="A378" s="7">
         <v>44101.595671296302</v>
       </c>
       <c r="B378">
@@ -9872,7 +9866,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A379" s="16">
+      <c r="A379" s="7">
         <v>44101.602615740703</v>
       </c>
       <c r="B379">
@@ -9895,7 +9889,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A380" s="16">
+      <c r="A380" s="7">
         <v>44101.609560185199</v>
       </c>
       <c r="B380">
@@ -9918,7 +9912,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A381" s="16">
+      <c r="A381" s="7">
         <v>44101.616504629601</v>
       </c>
       <c r="B381">
@@ -9941,7 +9935,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A382" s="16">
+      <c r="A382" s="7">
         <v>44101.623449074097</v>
       </c>
       <c r="B382">
@@ -9964,7 +9958,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A383" s="16">
+      <c r="A383" s="7">
         <v>44101.630393518499</v>
       </c>
       <c r="B383">
@@ -9987,7 +9981,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A384" s="16">
+      <c r="A384" s="7">
         <v>44101.637337963002</v>
       </c>
       <c r="B384">
@@ -10010,7 +10004,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A385" s="16">
+      <c r="A385" s="7">
         <v>44101.644282407397</v>
       </c>
       <c r="B385">
@@ -10033,7 +10027,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A386" s="16">
+      <c r="A386" s="7">
         <v>44101.651226851798</v>
       </c>
       <c r="B386">
@@ -10056,7 +10050,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A387" s="16">
+      <c r="A387" s="7">
         <v>44101.658171296302</v>
       </c>
       <c r="B387">
@@ -10079,7 +10073,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A388" s="16">
+      <c r="A388" s="7">
         <v>44101.665115740703</v>
       </c>
       <c r="B388">
@@ -10102,7 +10096,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A389" s="16">
+      <c r="A389" s="7">
         <v>44101.672060185199</v>
       </c>
       <c r="B389">
@@ -10125,7 +10119,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A390" s="16">
+      <c r="A390" s="7">
         <v>44101.679004629601</v>
       </c>
       <c r="B390">
@@ -10148,7 +10142,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A391" s="16">
+      <c r="A391" s="7">
         <v>44101.685949074097</v>
       </c>
       <c r="B391">
@@ -10171,7 +10165,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A392" s="16">
+      <c r="A392" s="7">
         <v>44101.692893518499</v>
       </c>
       <c r="B392">
@@ -10194,7 +10188,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A393" s="16">
+      <c r="A393" s="7">
         <v>44101.699837963002</v>
       </c>
       <c r="B393">
@@ -10217,7 +10211,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A394" s="16">
+      <c r="A394" s="7">
         <v>44101.706782407397</v>
       </c>
       <c r="B394">
@@ -10240,7 +10234,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A395" s="16">
+      <c r="A395" s="7">
         <v>44101.713726851798</v>
       </c>
       <c r="B395">
@@ -10263,7 +10257,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A396" s="16">
+      <c r="A396" s="7">
         <v>44101.720671296302</v>
       </c>
       <c r="B396">
@@ -10286,7 +10280,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A397" s="16">
+      <c r="A397" s="7">
         <v>44101.727615740703</v>
       </c>
       <c r="B397">
@@ -10309,7 +10303,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A398" s="16">
+      <c r="A398" s="7">
         <v>44101.734560185199</v>
       </c>
       <c r="B398">
@@ -10332,7 +10326,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A399" s="16">
+      <c r="A399" s="7">
         <v>44101.741504629601</v>
       </c>
       <c r="B399">
@@ -10355,7 +10349,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A400" s="16">
+      <c r="A400" s="7">
         <v>44101.748449074097</v>
       </c>
       <c r="B400">
@@ -10378,7 +10372,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A401" s="16">
+      <c r="A401" s="7">
         <v>44101.755393518499</v>
       </c>
       <c r="B401">
@@ -10401,7 +10395,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A402" s="16">
+      <c r="A402" s="7">
         <v>44101.762337963002</v>
       </c>
       <c r="B402">
@@ -10424,7 +10418,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A403" s="16">
+      <c r="A403" s="7">
         <v>44101.769282407397</v>
       </c>
       <c r="B403">
@@ -10447,7 +10441,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A404" s="16">
+      <c r="A404" s="7">
         <v>44101.776226851798</v>
       </c>
       <c r="B404">
@@ -10470,7 +10464,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A405" s="16">
+      <c r="A405" s="7">
         <v>44101.783171296302</v>
       </c>
       <c r="B405">
@@ -10493,7 +10487,7 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A406" s="16">
+      <c r="A406" s="7">
         <v>44101.790115740703</v>
       </c>
       <c r="B406">
@@ -10516,7 +10510,7 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A407" s="16">
+      <c r="A407" s="7">
         <v>44101.797060185199</v>
       </c>
       <c r="B407">
@@ -10539,7 +10533,7 @@
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A408" s="16">
+      <c r="A408" s="7">
         <v>44101.804004629601</v>
       </c>
       <c r="B408">
@@ -10562,7 +10556,7 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A409" s="16">
+      <c r="A409" s="7">
         <v>44101.810949074097</v>
       </c>
       <c r="B409">
@@ -10585,7 +10579,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A410" s="16">
+      <c r="A410" s="7">
         <v>44101.817893518499</v>
       </c>
       <c r="B410">
@@ -10608,7 +10602,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A411" s="16">
+      <c r="A411" s="7">
         <v>44101.824837963002</v>
       </c>
       <c r="B411">
@@ -10631,7 +10625,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A412" s="16">
+      <c r="A412" s="7">
         <v>44101.845092592601</v>
       </c>
       <c r="B412">
@@ -10654,7 +10648,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A413" s="16">
+      <c r="A413" s="7">
         <v>44101.852037037002</v>
       </c>
       <c r="B413">
@@ -10677,7 +10671,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A414" s="16">
+      <c r="A414" s="7">
         <v>44101.876851851841</v>
       </c>
       <c r="B414">
@@ -10700,250 +10694,250 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A415" s="16"/>
+      <c r="A415" s="7"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A416" s="16"/>
+      <c r="A416" s="7"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A417" s="16"/>
+      <c r="A417" s="7"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A418" s="16"/>
+      <c r="A418" s="7"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A419" s="16"/>
+      <c r="A419" s="7"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A420" s="16"/>
+      <c r="A420" s="7"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A421" s="16"/>
+      <c r="A421" s="7"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A422" s="16"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A423" s="16"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A424" s="16"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A425" s="16"/>
+      <c r="A425" s="7"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A426" s="16"/>
+      <c r="A426" s="7"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A427" s="16"/>
+      <c r="A427" s="7"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A428" s="16"/>
+      <c r="A428" s="7"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A429" s="16"/>
+      <c r="A429" s="7"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A430" s="16"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A431" s="16"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A432" s="16"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A433" s="16"/>
+      <c r="A433" s="7"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A434" s="16"/>
+      <c r="A434" s="7"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A435" s="16"/>
+      <c r="A435" s="7"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A436" s="16"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A437" s="16"/>
+      <c r="A437" s="7"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" s="16"/>
+      <c r="A438" s="7"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A439" s="16"/>
+      <c r="A439" s="7"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A440" s="16"/>
+      <c r="A440" s="7"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A441" s="16"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A442" s="16"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A443" s="16"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A444" s="16"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A445" s="16"/>
+      <c r="A445" s="7"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A446" s="16"/>
+      <c r="A446" s="7"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A447" s="16"/>
+      <c r="A447" s="7"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A448" s="16"/>
+      <c r="A448" s="7"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A449" s="16"/>
+      <c r="A449" s="7"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A450" s="16"/>
+      <c r="A450" s="7"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A451" s="16"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A452" s="16"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A453" s="16"/>
+      <c r="A453" s="7"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A454" s="16"/>
+      <c r="A454" s="7"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A455" s="16"/>
+      <c r="A455" s="7"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A456" s="16"/>
+      <c r="A456" s="7"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A457" s="16"/>
+      <c r="A457" s="7"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A458" s="16"/>
+      <c r="A458" s="7"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A459" s="16"/>
+      <c r="A459" s="7"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A460" s="16"/>
+      <c r="A460" s="7"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A461" s="16"/>
+      <c r="A461" s="7"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A462" s="16"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A463" s="16"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A464" s="16"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A465" s="16"/>
+      <c r="A465" s="7"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A466" s="16"/>
+      <c r="A466" s="7"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A467" s="16"/>
+      <c r="A467" s="7"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A468" s="16"/>
+      <c r="A468" s="7"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A469" s="16"/>
+      <c r="A469" s="7"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A470" s="16"/>
+      <c r="A470" s="7"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A471" s="16"/>
+      <c r="A471" s="7"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A472" s="16"/>
+      <c r="A472" s="7"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A473" s="16"/>
+      <c r="A473" s="7"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A474" s="16"/>
+      <c r="A474" s="7"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A475" s="16"/>
+      <c r="A475" s="7"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A476" s="16"/>
+      <c r="A476" s="7"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A477" s="16"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A478" s="16"/>
+      <c r="A478" s="7"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A479" s="16"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A480" s="16"/>
+      <c r="A480" s="7"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A481" s="16"/>
+      <c r="A481" s="7"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A482" s="16"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A483" s="16"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A484" s="16"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A485" s="16"/>
+      <c r="A485" s="7"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A486" s="16"/>
+      <c r="A486" s="7"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A487" s="16"/>
+      <c r="A487" s="7"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A488" s="16"/>
+      <c r="A488" s="7"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A489" s="16"/>
+      <c r="A489" s="7"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A490" s="16"/>
+      <c r="A490" s="7"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A491" s="16"/>
+      <c r="A491" s="7"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A492" s="16"/>
+      <c r="A492" s="7"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A493" s="16"/>
+      <c r="A493" s="7"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A494" s="16"/>
+      <c r="A494" s="7"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A495" s="16"/>
+      <c r="A495" s="7"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A496" s="16"/>
+      <c r="A496" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10957,7 +10951,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10986,100 +10980,100 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="9">
         <v>44097.832071759301</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="11">
         <v>1.6585648148148099E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>3732</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="9">
         <v>44098.834733796299</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="11">
         <v>2.1793981481481501E-2</v>
       </c>
       <c r="D3" s="1">
         <v>4613</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="9">
         <v>44101.830706018503</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="11">
         <v>1.43865740740741E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>3221</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="14"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11093,7 +11087,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11121,87 +11115,87 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="10">
         <v>44095.779189814799</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="11">
         <v>2.27199074074074E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>1985</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="10">
         <v>44096.787384259304</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="11">
         <v>1.96875E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>1766</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="10">
         <v>44098.786516203698</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="11">
         <v>1.6886574074074099E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>2104</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="10">
         <v>44100.783472222203</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="11">
         <v>2.1655092592592601E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>2501</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="12"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11214,7 +11208,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11242,44 +11236,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="10">
         <v>44100.427905092598</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="11">
         <v>7.4421296296296301E-3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="10">
         <v>44100.473715277803</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="11">
         <v>8.4837962962963E-3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11292,8 +11286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11322,24 +11316,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="8">
         <v>44101.855798611097</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="11">
         <v>2.1053240740740699E-2</v>
       </c>
       <c r="D2" s="1">
         <v>108</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11352,7 +11346,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11382,24 +11376,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10">
         <v>44099.821087962999</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="11">
         <v>2.80439814814815E-2</v>
       </c>
       <c r="D2" s="1">
         <v>320</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11412,8 +11406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A150" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11429,15 +11423,15 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11448,7 +11442,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11459,7 +11453,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11470,7 +11464,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11492,7 +11486,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -11503,7 +11497,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -11525,7 +11519,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -11536,7 +11530,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -11547,7 +11541,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -11558,7 +11552,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -11569,7 +11563,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -11580,7 +11574,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -11591,7 +11585,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -11602,7 +11596,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -11613,7 +11607,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -11624,7 +11618,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -11635,7 +11629,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -11646,7 +11640,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -11657,7 +11651,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -11668,7 +11662,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -11679,7 +11673,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -11690,7 +11684,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -11701,7 +11695,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -11712,7 +11706,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -11723,7 +11717,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -11734,7 +11728,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -11745,7 +11739,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -11756,7 +11750,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -11778,7 +11772,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -11789,7 +11783,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -11811,7 +11805,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -11822,7 +11816,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -11833,7 +11827,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -11844,7 +11838,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -11855,7 +11849,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -11866,7 +11860,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -11877,7 +11871,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -11888,7 +11882,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -11899,7 +11893,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -11910,7 +11904,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -11921,7 +11915,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -11932,7 +11926,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -11943,7 +11937,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -11954,7 +11948,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -11965,7 +11959,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -11976,7 +11970,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -11987,7 +11981,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -11998,7 +11992,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -12009,7 +12003,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -12020,7 +12014,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -12031,7 +12025,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -12042,7 +12036,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -12053,7 +12047,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -12064,7 +12058,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -12075,7 +12069,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -12086,7 +12080,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -12097,7 +12091,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -12108,7 +12102,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -12119,7 +12113,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -12130,7 +12124,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -12141,7 +12135,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -12152,7 +12146,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -12163,7 +12157,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -12174,7 +12168,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -12185,7 +12179,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -12196,7 +12190,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -12207,7 +12201,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -12218,7 +12212,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -12229,7 +12223,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -12240,7 +12234,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -12251,7 +12245,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -12262,7 +12256,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -12273,7 +12267,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -12284,7 +12278,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -12295,7 +12289,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -12306,7 +12300,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -12317,7 +12311,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -12328,7 +12322,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -12339,7 +12333,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -12350,7 +12344,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -12361,7 +12355,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -12372,7 +12366,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -12383,7 +12377,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -12394,7 +12388,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -12405,7 +12399,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -12416,7 +12410,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -12427,7 +12421,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -12438,7 +12432,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -12449,7 +12443,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -12460,7 +12454,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -12471,7 +12465,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -12482,7 +12476,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -12493,7 +12487,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -12504,7 +12498,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -12515,7 +12509,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -12526,7 +12520,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -12537,7 +12531,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -12548,7 +12542,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -12559,7 +12553,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -12570,7 +12564,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -12581,7 +12575,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -12592,7 +12586,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -12614,7 +12608,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -12625,7 +12619,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -12636,7 +12630,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -12647,7 +12641,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -12658,7 +12652,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -12669,7 +12663,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -12680,7 +12674,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -12691,7 +12685,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -12702,7 +12696,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -12713,7 +12707,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -12735,7 +12729,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -12746,7 +12740,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -12757,7 +12751,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -12768,7 +12762,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -12779,7 +12773,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -12790,7 +12784,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -12801,7 +12795,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -12812,7 +12806,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -12823,7 +12817,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -12834,7 +12828,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -12856,7 +12850,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -12867,7 +12861,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -12878,7 +12872,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -12900,7 +12894,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -12911,7 +12905,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -12922,7 +12916,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -12933,7 +12927,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -12944,7 +12938,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -12955,7 +12949,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -12966,7 +12960,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -12977,7 +12971,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -12988,7 +12982,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -12999,7 +12993,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -13010,7 +13004,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -13021,7 +13015,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -13032,7 +13026,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -13043,7 +13037,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -13054,7 +13048,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -13065,7 +13059,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -13076,7 +13070,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -13087,7 +13081,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -13098,7 +13092,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -13109,7 +13103,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -13119,8 +13113,8 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>165</v>
+      <c r="A155" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -13131,7 +13125,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -13142,7 +13136,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -13153,7 +13147,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -13164,7 +13158,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -13175,7 +13169,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -13186,7 +13180,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -13197,7 +13191,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -13208,7 +13202,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -13219,7 +13213,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -13230,7 +13224,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -13241,7 +13235,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -13252,7 +13246,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -13263,7 +13257,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -13274,7 +13268,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B169">
         <v>168</v>
@@ -13285,7 +13279,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B170">
         <v>169</v>
@@ -13296,7 +13290,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -13307,7 +13301,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -13318,7 +13312,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -13329,7 +13323,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -13340,7 +13334,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -13351,7 +13345,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -13362,7 +13356,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -13373,7 +13367,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B178">
         <v>177</v>
@@ -13384,7 +13378,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B179">
         <v>178</v>
@@ -13395,7 +13389,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B180">
         <v>179</v>
@@ -13406,7 +13400,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B181">
         <v>180</v>
@@ -13417,7 +13411,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B182">
         <v>181</v>
@@ -13428,7 +13422,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B183">
         <v>182</v>
@@ -13439,7 +13433,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B184">
         <v>183</v>
@@ -13450,7 +13444,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B185">
         <v>184</v>
